--- a/Versuch-5-3_Prismenspektroskopie/Versuchsdaten/5.3 Prismenspektroskopie - Auswertung.xlsx
+++ b/Versuch-5-3_Prismenspektroskopie/Versuchsdaten/5.3 Prismenspektroskopie - Auswertung.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langerb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benny\git\Ausarbeitungen_Physikpraktikum_SoSe2022\Versuch-5-3_Prismenspektroskopie\Versuchsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4428F3-F512-4718-86C5-7B9715018E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD5220E-66AF-4A42-B09C-5533C4CBB28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="mrhHUjWkzrh0Wv67jJdKqWMGCMkK4sjPTN5tcDpcVR50p5URVA9NlRq5ItAhxOMeP6fNA0+LID1RQdBYdpxBKQ==" workbookSaltValue="zbhYeasS2qISrAO30PkzQQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Überblick" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Überblick!$A:$G</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1495,7 +1496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1717,10 +1718,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1778,6 +1775,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1906,6 +1906,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1938,37 +1961,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2013,18 +2006,6 @@
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
-                <a:noFill/>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -2033,16 +2014,90 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.3605583724843859E-2"/>
-                  <c:y val="-0.35948100331302429"/>
+                  <c:x val="8.1739663836301671E-2"/>
+                  <c:y val="-0.42903638546683165"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="el-GR" baseline="0"/>
+                      <a:t>λ</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 0,5416</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="el-GR" baseline="0"/>
+                      <a:t>ϑ</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>4</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 6,612</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="el-GR" baseline="0"/>
+                      <a:t>ϑ</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 38,51</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="el-GR" baseline="0"/>
+                      <a:t>ϑ</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 159,43</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="el-GR" baseline="0"/>
+                      <a:t>ϑ</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 708,68</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2068,7 +2123,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2210,6 +2265,148 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spektrum der ersten LED</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Prismenspektroskopie!$C$72:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Prismenspektroskopie!$D$79:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>664.14276295999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402.60159999999985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>393.1849573501234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-505B-4245-BECF-CC515ABF0C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Spektrum der zweiten LED</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Prismenspektroskopie!$C$86:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Prismenspektroskopie!$D$93:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>478.3994271604937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471.50972788499996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>436.01864868345666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-505B-4245-BECF-CC515ABF0C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2242,6 +2439,102 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>ϑ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>in °</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2276,7 +2569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="688348816"/>
@@ -2287,6 +2580,7 @@
         <c:axId val="688348816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2304,6 +2598,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>λ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>in nm</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2338,7 +2698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="688346520"/>
@@ -2353,6 +2713,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35804158193440888"/>
+          <c:y val="2.3356690023356691E-2"/>
+          <c:w val="0.62544112038161581"/>
+          <c:h val="0.22981354057469547"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2379,7 +2780,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4237,15 +4638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4542,17 +4943,17 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="5"/>
-    <col min="4" max="4" width="11.44140625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="11.44140625" style="5"/>
+    <col min="1" max="3" width="11.46484375" style="5"/>
+    <col min="4" max="4" width="11.46484375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="11.46484375" style="5"/>
     <col min="8" max="8" width="45.6640625" style="6" customWidth="1"/>
-    <col min="9" max="23" width="11.44140625" style="3"/>
-    <col min="24" max="16384" width="11.44140625" style="4"/>
+    <col min="9" max="23" width="11.46484375" style="3"/>
+    <col min="24" max="16384" width="11.46484375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
@@ -4569,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -4586,7 +4987,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -4604,7 +5005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4621,7 +5022,7 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4670,7 +5071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="D7" s="101" t="s">
         <v>23</v>
       </c>
@@ -4680,7 +5081,7 @@
       </c>
       <c r="G7" s="101"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
@@ -4689,7 +5090,7 @@
       <c r="F8" s="99"/>
       <c r="G8" s="99"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
@@ -4698,7 +5099,7 @@
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
@@ -4707,13 +5108,13 @@
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="76"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
@@ -4727,7 +5128,7 @@
       <c r="G14" s="76"/>
       <c r="I14" s="73"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -4744,10 +5145,10 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="10"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>35</v>
       </c>
@@ -4794,20 +5195,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C87" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1" max="7" width="11.46484375" style="5" customWidth="1"/>
     <col min="8" max="8" width="45.6640625" style="15" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="78"/>
+    <col min="9" max="16384" width="11.46484375" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="134" t="s">
         <v>37</v>
       </c>
@@ -4820,11 +5221,11 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="96" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
@@ -4835,7 +5236,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -4845,7 +5246,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
@@ -4857,7 +5258,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4867,7 +5268,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21" t="s">
         <v>40</v>
       </c>
@@ -4891,7 +5292,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -4903,7 +5304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="31"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -4913,7 +5314,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="135"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
@@ -4925,7 +5326,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4935,12 +5336,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
         <v>49</v>
       </c>
@@ -4952,7 +5353,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -4962,7 +5363,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="37"/>
       <c r="B17" s="39" t="s">
         <v>50</v>
@@ -4984,7 +5385,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="37"/>
       <c r="B18" s="43">
         <v>0</v>
@@ -5005,7 +5406,7 @@
       <c r="G18" s="140"/>
       <c r="H18" s="138"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="37"/>
       <c r="B19" s="46">
         <v>0</v>
@@ -5026,7 +5427,7 @@
       <c r="G19" s="121"/>
       <c r="H19" s="138"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="37"/>
       <c r="B20" s="46">
         <v>0</v>
@@ -5047,7 +5448,7 @@
       <c r="G20" s="121"/>
       <c r="H20" s="138"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="37"/>
       <c r="B21" s="46">
         <v>1</v>
@@ -5068,7 +5469,7 @@
       <c r="G21" s="121"/>
       <c r="H21" s="138"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="37"/>
       <c r="B22" s="46">
         <v>1</v>
@@ -5089,7 +5490,7 @@
       <c r="G22" s="121"/>
       <c r="H22" s="138"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="37"/>
       <c r="B23" s="46">
         <v>2</v>
@@ -5110,7 +5511,7 @@
       <c r="G23" s="121"/>
       <c r="H23" s="138"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="37"/>
       <c r="B24" s="46">
         <v>2</v>
@@ -5131,7 +5532,7 @@
       <c r="G24" s="121"/>
       <c r="H24" s="138"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="37"/>
       <c r="B25" s="46">
         <v>3</v>
@@ -5152,7 +5553,7 @@
       <c r="G25" s="121"/>
       <c r="H25" s="138"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="37"/>
       <c r="B26" s="46">
         <v>3</v>
@@ -5173,7 +5574,7 @@
       <c r="G26" s="121"/>
       <c r="H26" s="138"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="37"/>
       <c r="B27" s="46">
         <v>3</v>
@@ -5194,7 +5595,7 @@
       <c r="G27" s="121"/>
       <c r="H27" s="138"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="37"/>
       <c r="B28" s="46">
         <v>4</v>
@@ -5215,7 +5616,7 @@
       <c r="G28" s="121"/>
       <c r="H28" s="138"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="37"/>
       <c r="B29" s="49">
         <v>4</v>
@@ -5236,7 +5637,7 @@
       <c r="G29" s="123"/>
       <c r="H29" s="138"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -5246,7 +5647,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
         <v>65</v>
       </c>
@@ -5258,7 +5659,7 @@
       <c r="G31" s="37"/>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="37"/>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -5268,7 +5669,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="52" t="s">
         <v>66</v>
       </c>
@@ -5278,7 +5679,7 @@
       <c r="C33" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="97">
         <f>0.5/30*B33</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5291,7 +5692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -5301,12 +5702,12 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="124"/>
       <c r="B37" s="125"/>
       <c r="C37" s="125"/>
@@ -5318,7 +5719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="127"/>
       <c r="B38" s="128"/>
       <c r="C38" s="128"/>
@@ -5328,7 +5729,7 @@
       <c r="G38" s="129"/>
       <c r="H38" s="133"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="127"/>
       <c r="B39" s="128"/>
       <c r="C39" s="128"/>
@@ -5338,7 +5739,7 @@
       <c r="G39" s="129"/>
       <c r="H39" s="133"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="127"/>
       <c r="B40" s="128"/>
       <c r="C40" s="128"/>
@@ -5348,7 +5749,7 @@
       <c r="G40" s="129"/>
       <c r="H40" s="133"/>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="127"/>
       <c r="B41" s="128"/>
       <c r="C41" s="128"/>
@@ -5358,7 +5759,7 @@
       <c r="G41" s="129"/>
       <c r="H41" s="133"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="127"/>
       <c r="B42" s="128"/>
       <c r="C42" s="128"/>
@@ -5368,7 +5769,7 @@
       <c r="G42" s="129"/>
       <c r="H42" s="133"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="127"/>
       <c r="B43" s="128"/>
       <c r="C43" s="128"/>
@@ -5378,7 +5779,7 @@
       <c r="G43" s="129"/>
       <c r="H43" s="133"/>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="127"/>
       <c r="B44" s="128"/>
       <c r="C44" s="128"/>
@@ -5388,7 +5789,7 @@
       <c r="G44" s="129"/>
       <c r="H44" s="133"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="127"/>
       <c r="B45" s="128"/>
       <c r="C45" s="128"/>
@@ -5398,7 +5799,7 @@
       <c r="G45" s="129"/>
       <c r="H45" s="133"/>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="127"/>
       <c r="B46" s="128"/>
       <c r="C46" s="128"/>
@@ -5408,7 +5809,7 @@
       <c r="G46" s="129"/>
       <c r="H46" s="133"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="127"/>
       <c r="B47" s="128"/>
       <c r="C47" s="128"/>
@@ -5418,7 +5819,7 @@
       <c r="G47" s="129"/>
       <c r="H47" s="133"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="127"/>
       <c r="B48" s="128"/>
       <c r="C48" s="128"/>
@@ -5428,7 +5829,7 @@
       <c r="G48" s="129"/>
       <c r="H48" s="133"/>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="127"/>
       <c r="B49" s="128"/>
       <c r="C49" s="128"/>
@@ -5438,7 +5839,7 @@
       <c r="G49" s="129"/>
       <c r="H49" s="133"/>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="127"/>
       <c r="B50" s="128"/>
       <c r="C50" s="128"/>
@@ -5448,7 +5849,7 @@
       <c r="G50" s="129"/>
       <c r="H50" s="133"/>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="127"/>
       <c r="B51" s="128"/>
       <c r="C51" s="128"/>
@@ -5458,7 +5859,7 @@
       <c r="G51" s="129"/>
       <c r="H51" s="133"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="127"/>
       <c r="B52" s="128"/>
       <c r="C52" s="128"/>
@@ -5468,7 +5869,7 @@
       <c r="G52" s="129"/>
       <c r="H52" s="133"/>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="127"/>
       <c r="B53" s="128"/>
       <c r="C53" s="128"/>
@@ -5478,7 +5879,7 @@
       <c r="G53" s="129"/>
       <c r="H53" s="133"/>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="127"/>
       <c r="B54" s="128"/>
       <c r="C54" s="128"/>
@@ -5488,7 +5889,7 @@
       <c r="G54" s="129"/>
       <c r="H54" s="133"/>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="127"/>
       <c r="B55" s="128"/>
       <c r="C55" s="128"/>
@@ -5498,7 +5899,7 @@
       <c r="G55" s="129"/>
       <c r="H55" s="133"/>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="130"/>
       <c r="B56" s="131"/>
       <c r="C56" s="131"/>
@@ -5508,7 +5909,7 @@
       <c r="G56" s="132"/>
       <c r="H56" s="133"/>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -5518,7 +5919,7 @@
       <c r="G57" s="37"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="18" t="s">
         <v>72</v>
       </c>
@@ -5529,12 +5930,14 @@
       <c r="F58" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="82"/>
+      <c r="G58" s="82">
+        <v>4</v>
+      </c>
       <c r="H58" s="118" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -5544,7 +5947,7 @@
       <c r="G59" s="37"/>
       <c r="H59" s="118"/>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="37"/>
       <c r="B60" s="54" t="s">
         <v>75</v>
@@ -5562,44 +5965,55 @@
       <c r="G60" s="37"/>
       <c r="H60" s="118"/>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="98">
+        <v>708.68</v>
+      </c>
+      <c r="C61" s="83"/>
       <c r="D61" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="84"/>
+      <c r="E61" s="98">
+        <v>-159.43</v>
+      </c>
+      <c r="F61" s="83"/>
       <c r="G61" s="56" t="s">
         <v>79</v>
       </c>
       <c r="H61" s="118"/>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="98">
+        <v>38.51</v>
+      </c>
+      <c r="C62" s="83"/>
       <c r="D62" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="84"/>
+      <c r="E62" s="98">
+        <f>-6.612</f>
+        <v>-6.6120000000000001</v>
+      </c>
+      <c r="F62" s="83"/>
       <c r="G62" s="56" t="s">
         <v>83</v>
       </c>
       <c r="H62" s="118"/>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="98">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="C63" s="83"/>
       <c r="D63" s="56" t="s">
         <v>84</v>
       </c>
@@ -5608,7 +6022,7 @@
       <c r="G63" s="37"/>
       <c r="H63" s="118"/>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -5618,7 +6032,7 @@
       <c r="G64" s="37"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="19" t="s">
         <v>85</v>
       </c>
@@ -5632,7 +6046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="37"/>
       <c r="B66" s="37"/>
       <c r="C66" s="37"/>
@@ -5642,11 +6056,11 @@
       <c r="G66" s="37"/>
       <c r="H66" s="118"/>
     </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="85"/>
+      <c r="B67" s="84"/>
       <c r="C67" s="37" t="s">
         <v>80</v>
       </c>
@@ -5656,7 +6070,7 @@
       <c r="G67" s="37"/>
       <c r="H67" s="118"/>
     </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="37"/>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -5666,7 +6080,7 @@
       <c r="G68" s="37"/>
       <c r="H68" s="58"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A69" s="60" t="s">
         <v>88</v>
       </c>
@@ -5682,7 +6096,7 @@
       <c r="G69" s="119"/>
       <c r="H69" s="38"/>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="37"/>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
@@ -5691,8 +6105,15 @@
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="38"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I70" s="142"/>
+      <c r="J70" s="143"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="143"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="143"/>
+      <c r="O70" s="142"/>
+    </row>
+    <row r="71" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="41" t="s">
         <v>50</v>
       </c>
@@ -5713,27 +6134,45 @@
       </c>
       <c r="G71" s="109"/>
       <c r="H71" s="38"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="142"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="143"/>
+      <c r="M71" s="143"/>
+      <c r="N71" s="143"/>
+      <c r="O71" s="142"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B72" s="63">
-        <v>22</v>
-      </c>
-      <c r="C72" s="86">
+        <v>18</v>
+      </c>
+      <c r="C72" s="85">
         <f>A72+(B72/30)*0.5</f>
-        <v>4.3666666666666663</v>
-      </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="87"/>
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="64">
+        <v>5</v>
+      </c>
+      <c r="E72" s="86">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F72" s="113" t="s">
         <v>93</v>
       </c>
       <c r="G72" s="114"/>
       <c r="H72" s="38"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="142"/>
+      <c r="J72" s="144"/>
+      <c r="K72" s="144"/>
+      <c r="L72" s="145"/>
+      <c r="M72" s="145"/>
+      <c r="N72" s="145"/>
+      <c r="O72" s="142"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="46">
         <v>4</v>
       </c>
@@ -5741,37 +6180,59 @@
         <v>0</v>
       </c>
       <c r="C73" s="80">
-        <f t="shared" ref="C73:C74" si="1">A73+(B73/30)*0.5</f>
+        <f>A73+(B73/30)*0.5</f>
         <v>4</v>
       </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="88"/>
+      <c r="D73" s="65">
+        <v>5</v>
+      </c>
+      <c r="E73" s="87">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F73" s="115" t="s">
         <v>94</v>
       </c>
       <c r="G73" s="116"/>
       <c r="H73" s="38"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I73" s="142"/>
+      <c r="J73" s="143"/>
+      <c r="K73" s="143"/>
+      <c r="L73" s="143"/>
+      <c r="M73" s="143"/>
+      <c r="N73" s="143"/>
+      <c r="O73" s="142"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B74" s="50">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C74" s="34">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="89"/>
+        <f>A74+(B74/30)*0.5</f>
+        <v>4.3666666666666663</v>
+      </c>
+      <c r="D74" s="32">
+        <v>5</v>
+      </c>
+      <c r="E74" s="88">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F74" s="106" t="s">
         <v>95</v>
       </c>
       <c r="G74" s="107"/>
       <c r="H74" s="38"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="142"/>
+      <c r="J74" s="143"/>
+      <c r="K74" s="143"/>
+      <c r="L74" s="143"/>
+      <c r="M74" s="143"/>
+      <c r="N74" s="143"/>
+      <c r="O74" s="142"/>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="37"/>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -5780,8 +6241,15 @@
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
       <c r="H75" s="66"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="142"/>
+      <c r="J75" s="143"/>
+      <c r="K75" s="143"/>
+      <c r="L75" s="143"/>
+      <c r="M75" s="143"/>
+      <c r="N75" s="143"/>
+      <c r="O75" s="142"/>
+    </row>
+    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="19" t="s">
         <v>96</v>
       </c>
@@ -5792,8 +6260,15 @@
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
       <c r="H76" s="66"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I76" s="142"/>
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="143"/>
+      <c r="N76" s="143"/>
+      <c r="O76" s="142"/>
+    </row>
+    <row r="77" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="37"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -5802,8 +6277,15 @@
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
       <c r="H77" s="66"/>
-    </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I77" s="142"/>
+      <c r="J77" s="143"/>
+      <c r="K77" s="143"/>
+      <c r="L77" s="143"/>
+      <c r="M77" s="143"/>
+      <c r="N77" s="143"/>
+      <c r="O77" s="142"/>
+    </row>
+    <row r="78" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="67"/>
       <c r="B78" s="67"/>
       <c r="C78" s="67"/>
@@ -5820,44 +6302,90 @@
       <c r="H78" s="110" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I78" s="142"/>
+      <c r="J78" s="143"/>
+      <c r="K78" s="143"/>
+      <c r="L78" s="143"/>
+      <c r="M78" s="143"/>
+      <c r="N78" s="143"/>
+      <c r="O78" s="142"/>
+    </row>
+    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="67"/>
       <c r="B79" s="67"/>
       <c r="C79" s="67"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="91"/>
+      <c r="D79" s="89">
+        <f>B63*C72^4+E62*C72^3+B62*C72^2+E61*C72+B61</f>
+        <v>664.14276295999991</v>
+      </c>
+      <c r="E79" s="90">
+        <f>ABS((4*B63*C72^3+3*E62*C72^2+2*B62*C72+E61)*E72)</f>
+        <v>11.458212017600003</v>
+      </c>
       <c r="F79" s="111" t="s">
         <v>93</v>
       </c>
       <c r="G79" s="112"/>
       <c r="H79" s="110"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I79" s="142"/>
+      <c r="J79" s="143"/>
+      <c r="K79" s="143"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="142"/>
+    </row>
+    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="67"/>
       <c r="B80" s="67"/>
       <c r="C80" s="67"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="92"/>
+      <c r="D80" s="94">
+        <f>B63*C73^4+E62*C73^3+B62*C73^2+E61*C73+B61</f>
+        <v>402.60159999999985</v>
+      </c>
+      <c r="E80" s="91">
+        <f>ABS((4*B63*C73^3+3*E62*C73^2+2*B62*C73+E61)*E73)</f>
+        <v>2.4963412000000007</v>
+      </c>
       <c r="F80" s="102" t="s">
         <v>94</v>
       </c>
       <c r="G80" s="103"/>
       <c r="H80" s="110"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I80" s="142"/>
+      <c r="J80" s="143"/>
+      <c r="K80" s="143"/>
+      <c r="L80" s="143"/>
+      <c r="M80" s="143"/>
+      <c r="N80" s="143"/>
+      <c r="O80" s="142"/>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="67"/>
       <c r="B81" s="67"/>
       <c r="C81" s="67"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="93"/>
+      <c r="D81" s="95">
+        <f>B63*C74^4+E62*C74^3+B62*C74^2+E61*C74+B61</f>
+        <v>393.1849573501234</v>
+      </c>
+      <c r="E81" s="90">
+        <f>ABS((4*B63*C74^3+3*E62*C74^2+2*B62*C74+E61)*E74)</f>
+        <v>1.7394818378074119</v>
+      </c>
       <c r="F81" s="104" t="s">
         <v>95</v>
       </c>
       <c r="G81" s="105"/>
       <c r="H81" s="110"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="142"/>
+      <c r="J81" s="143"/>
+      <c r="K81" s="143"/>
+      <c r="L81" s="143"/>
+      <c r="M81" s="143"/>
+      <c r="N81" s="143"/>
+      <c r="O81" s="142"/>
+    </row>
+    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="37"/>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -5866,8 +6394,15 @@
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
       <c r="H82" s="66"/>
-    </row>
-    <row r="83" spans="1:8" s="94" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I82" s="142"/>
+      <c r="J82" s="143"/>
+      <c r="K82" s="143"/>
+      <c r="L82" s="143"/>
+      <c r="M82" s="143"/>
+      <c r="N82" s="143"/>
+      <c r="O82" s="142"/>
+    </row>
+    <row r="83" spans="1:15" s="93" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="60" t="s">
         <v>99</v>
       </c>
@@ -5882,8 +6417,15 @@
       </c>
       <c r="G83" s="117"/>
       <c r="H83" s="72"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I83" s="146"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="147"/>
+      <c r="M83" s="147"/>
+      <c r="N83" s="147"/>
+      <c r="O83" s="146"/>
+    </row>
+    <row r="84" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="37"/>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -5892,8 +6434,15 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="38"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I84" s="142"/>
+      <c r="J84" s="143"/>
+      <c r="K84" s="143"/>
+      <c r="L84" s="143"/>
+      <c r="M84" s="143"/>
+      <c r="N84" s="143"/>
+      <c r="O84" s="142"/>
+    </row>
+    <row r="85" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="41" t="s">
         <v>50</v>
       </c>
@@ -5914,65 +6463,105 @@
       </c>
       <c r="G85" s="109"/>
       <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I85" s="142"/>
+      <c r="J85" s="143"/>
+      <c r="K85" s="143"/>
+      <c r="L85" s="143"/>
+      <c r="M85" s="143"/>
+      <c r="N85" s="143"/>
+      <c r="O85" s="142"/>
+    </row>
+    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="63">
-        <v>8</v>
-      </c>
-      <c r="C86" s="86">
+        <v>20</v>
+      </c>
+      <c r="C86" s="85">
         <f>A86+(B86/30)*0.5</f>
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="86"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D86" s="64">
+        <v>5</v>
+      </c>
+      <c r="E86" s="85">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F86" s="113" t="s">
         <v>93</v>
       </c>
       <c r="G86" s="114"/>
       <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I86" s="142"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="145"/>
+      <c r="M86" s="145"/>
+      <c r="N86" s="145"/>
+      <c r="O86" s="142"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="46">
         <v>2</v>
       </c>
       <c r="B87" s="47">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C87" s="80">
-        <f t="shared" ref="C87:C88" si="2">A87+(B87/30)*0.5</f>
-        <v>2.15</v>
-      </c>
-      <c r="D87" s="65"/>
-      <c r="E87" s="80"/>
+        <f>A87+(B87/30)*0.5</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D87" s="65">
+        <v>5</v>
+      </c>
+      <c r="E87" s="80">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F87" s="115" t="s">
         <v>94</v>
       </c>
       <c r="G87" s="116"/>
       <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I87" s="142"/>
+      <c r="J87" s="143"/>
+      <c r="K87" s="143"/>
+      <c r="L87" s="143"/>
+      <c r="M87" s="143"/>
+      <c r="N87" s="143"/>
+      <c r="O87" s="142"/>
+    </row>
+    <row r="88" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="50">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C88" s="34">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="D88" s="32"/>
-      <c r="E88" s="34"/>
+        <f>A88+(B88/30)*0.5</f>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="D88" s="32">
+        <v>5</v>
+      </c>
+      <c r="E88" s="34">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="F88" s="106" t="s">
         <v>95</v>
       </c>
       <c r="G88" s="107"/>
       <c r="H88" s="38"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="142"/>
+      <c r="J88" s="143"/>
+      <c r="K88" s="143"/>
+      <c r="L88" s="143"/>
+      <c r="M88" s="143"/>
+      <c r="N88" s="143"/>
+      <c r="O88" s="142"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="37"/>
       <c r="B89" s="37"/>
       <c r="C89" s="37"/>
@@ -5981,8 +6570,13 @@
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
       <c r="H89" s="66"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="141"/>
+      <c r="K89" s="141"/>
+      <c r="L89" s="141"/>
+      <c r="M89" s="141"/>
+      <c r="N89" s="141"/>
+    </row>
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="19" t="s">
         <v>96</v>
       </c>
@@ -5994,7 +6588,7 @@
       <c r="G90" s="37"/>
       <c r="H90" s="66"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="37"/>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -6004,7 +6598,7 @@
       <c r="G91" s="37"/>
       <c r="H91" s="66"/>
     </row>
-    <row r="92" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="67"/>
       <c r="B92" s="67"/>
       <c r="C92" s="67"/>
@@ -6022,43 +6616,61 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="67"/>
       <c r="B93" s="67"/>
       <c r="C93" s="67"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="91"/>
+      <c r="D93" s="89">
+        <f>B63*C86^4+E62*C86^3+B62*C86^2+E61*C86+B61</f>
+        <v>478.3994271604937</v>
+      </c>
+      <c r="E93" s="90">
+        <f>ABS((4*B63*C86^3+3*E62*C86^2+2*B62*C86+E61)*E86)</f>
+        <v>4.9958831259259266</v>
+      </c>
       <c r="F93" s="111" t="s">
         <v>93</v>
       </c>
       <c r="G93" s="112"/>
       <c r="H93" s="110"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="67"/>
       <c r="B94" s="67"/>
       <c r="C94" s="67"/>
-      <c r="D94" s="95"/>
-      <c r="E94" s="92"/>
+      <c r="D94" s="94">
+        <f>B63*C87^4+E62*C87^3+B62*C87^2+E61*C87+B61</f>
+        <v>471.50972788499996</v>
+      </c>
+      <c r="E94" s="91">
+        <f>ABS((4*B63*C87^3+3*E62*C87^2+2*B62*C87+E61)*E87)</f>
+        <v>4.8087909864</v>
+      </c>
       <c r="F94" s="102" t="s">
         <v>94</v>
       </c>
       <c r="G94" s="103"/>
       <c r="H94" s="110"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="67"/>
       <c r="B95" s="67"/>
       <c r="C95" s="67"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="93"/>
+      <c r="D95" s="95">
+        <f>B63*C88^4+E62*C88^3+B62*C88^2+E61*C88+B61</f>
+        <v>436.01864868345666</v>
+      </c>
+      <c r="E95" s="92">
+        <f>ABS((4*B63*C88^3+3*E62*C88^2+2*B62*C88+E61)*E88)</f>
+        <v>3.8348081221925936</v>
+      </c>
       <c r="F95" s="104" t="s">
         <v>95</v>
       </c>
       <c r="G95" s="105"/>
       <c r="H95" s="110"/>
     </row>
-    <row r="97" spans="1:8" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="79" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="36" t="s">
         <v>100</v>
       </c>
